--- a/Formats/Lenex/Lenex_3.0_Data_Model.xlsx
+++ b/Formats/Lenex/Lenex_3.0_Data_Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Swimming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9004A0-EDAF-445D-BF68-7536DB78283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD90FB5A-791F-44B7-9951-15C17D6CF4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36998781-9D05-4A47-A5F5-1AB6611C3C9C}"/>
   </bookViews>
@@ -2772,7 +2772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2795,23 +2795,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2827,12 +2816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2842,6 +2825,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3160,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00D51C2-4F10-4F90-8B85-5040FA6B7FA4}">
   <dimension ref="A2:E517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3176,12 +3162,12 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3230,12 +3216,12 @@
     </row>
     <row r="9" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -3393,27 +3379,27 @@
       </c>
     </row>
     <row r="23" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
@@ -3448,12 +3434,12 @@
     </row>
     <row r="29" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -3501,36 +3487,32 @@
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3577,16 +3559,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3633,9 +3615,6 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2</v>
-      </c>
       <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
@@ -3692,23 +3671,20 @@
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>61</v>
       </c>
@@ -3722,31 +3698,31 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
+    <row r="52" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>85</v>
       </c>
@@ -3772,24 +3748,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
+    <row r="57" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
@@ -3801,24 +3777,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" s="9" t="s">
+    <row r="61" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
@@ -3832,24 +3805,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>29</v>
       </c>
@@ -3863,7 +3833,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>93</v>
       </c>
@@ -3877,7 +3847,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3891,10 +3861,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>1</v>
-      </c>
+    <row r="67" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>94</v>
       </c>
@@ -3908,24 +3875,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" s="9" t="s">
+    <row r="68" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>96</v>
       </c>
@@ -3939,24 +3903,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="D70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>98</v>
       </c>
@@ -3970,7 +3931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>99</v>
       </c>
@@ -3982,7 +3943,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>61</v>
       </c>
@@ -3994,7 +3955,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4004,26 +3965,26 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="11" t="s">
+    <row r="76" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>0</v>
       </c>
@@ -4035,28 +3996,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
@@ -4076,16 +4037,16 @@
       </c>
     </row>
     <row r="85" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4133,12 +4094,12 @@
     </row>
     <row r="89" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
@@ -4213,7 +4174,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>132</v>
       </c>
@@ -4227,10 +4188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>1</v>
-      </c>
+    <row r="98" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>29</v>
       </c>
@@ -4244,7 +4202,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>133</v>
       </c>
@@ -4258,7 +4216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>134</v>
       </c>
@@ -4272,7 +4230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>135</v>
       </c>
@@ -4286,7 +4244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
         <v>136</v>
       </c>
@@ -4300,7 +4258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>137</v>
       </c>
@@ -4314,7 +4272,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
         <v>138</v>
       </c>
@@ -4328,26 +4286,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="11" t="s">
+    <row r="106" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>0</v>
       </c>
@@ -4359,28 +4317,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="9" t="s">
+    <row r="110" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="11" t="s">
+    <row r="111" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
@@ -4484,30 +4442,30 @@
       </c>
     </row>
     <row r="121" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="10" t="s">
+      <c r="D121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="122" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E122" s="10" t="s">
+      <c r="D122" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4532,12 +4490,12 @@
     </row>
     <row r="125" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
@@ -4557,16 +4515,16 @@
       </c>
     </row>
     <row r="129" spans="2:5" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="10" t="s">
+      <c r="D129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4627,16 +4585,16 @@
       </c>
     </row>
     <row r="134" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" s="10" t="s">
+      <c r="D134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4725,30 +4683,30 @@
       </c>
     </row>
     <row r="141" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="142" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" s="10" t="s">
+      <c r="D142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4782,12 +4740,12 @@
     </row>
     <row r="145" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="5" t="s">
@@ -4822,12 +4780,12 @@
     </row>
     <row r="150" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
@@ -4944,21 +4902,21 @@
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B162" s="11" t="s">
+    <row r="161" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
         <v>0</v>
       </c>
@@ -4970,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
         <v>219</v>
       </c>
@@ -4984,10 +4942,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="129.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>1</v>
-      </c>
+    <row r="166" spans="2:5" ht="129.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
         <v>3</v>
       </c>
@@ -5001,7 +4956,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
@@ -5015,26 +4970,26 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B170" s="11" t="s">
+    <row r="169" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B170" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
         <v>0</v>
       </c>
@@ -5046,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
         <v>182</v>
       </c>
@@ -5060,16 +5015,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="174" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="11" t="s">
+    <row r="174" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B175" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>231</v>
       </c>
@@ -5144,12 +5099,12 @@
     </row>
     <row r="182" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="183" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
@@ -5268,12 +5223,12 @@
     </row>
     <row r="193" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="194" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
@@ -5308,12 +5263,12 @@
     </row>
     <row r="198" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="199" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
@@ -5390,12 +5345,12 @@
     </row>
     <row r="206" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="207" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
@@ -5415,27 +5370,27 @@
       </c>
     </row>
     <row r="210" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D210" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="E210" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="211" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="212" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
@@ -5455,58 +5410,58 @@
       </c>
     </row>
     <row r="215" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="216" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="10" t="s">
+      <c r="D216" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="217" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" s="10" t="s">
+      <c r="D217" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="218" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D218" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E218" s="10" t="s">
+      <c r="D218" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="8" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5526,12 +5481,12 @@
     </row>
     <row r="220" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="221" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
@@ -5551,16 +5506,16 @@
       </c>
     </row>
     <row r="224" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D224" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E224" s="10" t="s">
+      <c r="D224" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" s="8" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5607,30 +5562,30 @@
       </c>
     </row>
     <row r="228" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D228" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E228" s="10" t="s">
+      <c r="D228" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="229" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D229" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E229" s="10" t="s">
+      <c r="D229" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5705,30 +5660,30 @@
       </c>
     </row>
     <row r="235" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D235" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E235" s="10" t="s">
+      <c r="D235" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E236" s="10" t="s">
+      <c r="D236" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5873,44 +5828,44 @@
       </c>
     </row>
     <row r="247" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D247" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E247" s="10" t="s">
+      <c r="D247" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="248" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D248" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E248" s="10" t="s">
+      <c r="D248" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="249" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D249" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E249" s="10" t="s">
+      <c r="D249" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" s="8" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5943,16 +5898,16 @@
       </c>
     </row>
     <row r="252" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E252" s="10" t="s">
+      <c r="E252" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6012,7 +5967,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
         <v>302</v>
       </c>
@@ -6026,21 +5981,21 @@
         <v>336</v>
       </c>
     </row>
-    <row r="258" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B259" s="11" t="s">
+    <row r="258" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B259" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B261" s="4" t="s">
         <v>0</v>
       </c>
@@ -6052,10 +6007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>2</v>
-      </c>
+    <row r="262" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
         <v>340</v>
       </c>
@@ -6069,10 +6021,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>1</v>
-      </c>
+    <row r="263" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
         <v>128</v>
       </c>
@@ -6086,10 +6035,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>2</v>
-      </c>
+    <row r="264" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
         <v>282</v>
       </c>
@@ -6103,10 +6049,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>1</v>
-      </c>
+    <row r="265" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
         <v>341</v>
       </c>
@@ -6120,7 +6063,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
         <v>181</v>
       </c>
@@ -6134,7 +6077,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
         <v>29</v>
       </c>
@@ -6148,10 +6091,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>1</v>
-      </c>
+    <row r="268" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
         <v>58</v>
       </c>
@@ -6165,24 +6105,21 @@
         <v>351</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="9" t="s">
+    <row r="269" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D269" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E269" s="10" t="s">
+      <c r="D269" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>2</v>
-      </c>
+    <row r="270" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
         <v>342</v>
       </c>
@@ -6196,7 +6133,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
         <v>135</v>
       </c>
@@ -6210,7 +6147,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>343</v>
       </c>
@@ -6222,12 +6159,12 @@
     </row>
     <row r="274" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="275" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
@@ -6247,27 +6184,27 @@
       </c>
     </row>
     <row r="278" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C278" s="9" t="s">
+      <c r="C278" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E278" s="10" t="s">
+      <c r="E278" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="279" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="280" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
@@ -6287,16 +6224,16 @@
       </c>
     </row>
     <row r="283" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D283" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E283" s="10" t="s">
+      <c r="D283" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" s="8" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6428,12 +6365,12 @@
     </row>
     <row r="293" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="294" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="11" t="s">
+      <c r="B294" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C294" s="11"/>
-      <c r="D294" s="11"/>
-      <c r="E294" s="11"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
@@ -6453,34 +6390,34 @@
       </c>
     </row>
     <row r="297" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C297" s="9" t="s">
+      <c r="C297" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E297" s="10" t="s">
+      <c r="E297" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="298" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="299" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C299" s="11"/>
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B301" s="4" t="s">
         <v>0</v>
       </c>
@@ -6492,7 +6429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
         <v>29</v>
       </c>
@@ -6506,7 +6443,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="303" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
         <v>376</v>
       </c>
@@ -6520,7 +6457,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="304" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
         <v>121</v>
       </c>
@@ -6532,14 +6469,13 @@
       </c>
       <c r="E304" s="2"/>
     </row>
-    <row r="305" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="306" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
@@ -6616,12 +6552,12 @@
     </row>
     <row r="313" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="314" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B314" s="11" t="s">
+      <c r="B314" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="9"/>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
@@ -6698,12 +6634,12 @@
     </row>
     <row r="321" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="322" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
+      <c r="C322" s="9"/>
+      <c r="D322" s="9"/>
+      <c r="E322" s="9"/>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
@@ -6766,12 +6702,12 @@
     </row>
     <row r="328" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="329" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B329" s="11" t="s">
+      <c r="B329" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C329" s="11"/>
-      <c r="D329" s="11"/>
-      <c r="E329" s="11"/>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
@@ -6791,27 +6727,27 @@
       </c>
     </row>
     <row r="332" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C332" s="9" t="s">
+      <c r="C332" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D332" s="9" t="s">
+      <c r="D332" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="10" t="s">
+      <c r="E332" s="8" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="333" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="334" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B334" s="11" t="s">
+      <c r="B334" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C334" s="11"/>
-      <c r="D334" s="11"/>
-      <c r="E334" s="11"/>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
@@ -6831,16 +6767,16 @@
       </c>
     </row>
     <row r="337" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C337" s="9" t="s">
+      <c r="C337" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D337" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E337" s="10" t="s">
+      <c r="D337" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6859,58 +6795,58 @@
       </c>
     </row>
     <row r="339" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C339" s="9" t="s">
+      <c r="C339" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D339" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E339" s="10" t="s">
+      <c r="D339" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E339" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="340" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D340" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E340" s="10" t="s">
+      <c r="D340" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="341" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D341" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E341" s="10" t="s">
+      <c r="D341" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E341" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="342" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C342" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D342" s="9" t="s">
+      <c r="D342" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E342" s="10" t="s">
+      <c r="E342" s="8" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6942,12 +6878,12 @@
     </row>
     <row r="345" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="346" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C346" s="11"/>
-      <c r="D346" s="11"/>
-      <c r="E346" s="11"/>
+      <c r="C346" s="9"/>
+      <c r="D346" s="9"/>
+      <c r="E346" s="9"/>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
@@ -6967,14 +6903,14 @@
       </c>
     </row>
     <row r="349" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C349" s="9" t="s">
+      <c r="C349" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D349" s="9"/>
-      <c r="E349" s="10" t="s">
+      <c r="D349" s="7"/>
+      <c r="E349" s="8" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7063,16 +6999,16 @@
       </c>
     </row>
     <row r="356" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C356" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D356" s="9" t="s">
+      <c r="D356" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E356" s="10" t="s">
+      <c r="E356" s="8" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7120,12 +7056,12 @@
     </row>
     <row r="360" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="361" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B361" s="11" t="s">
+      <c r="B361" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C361" s="11"/>
-      <c r="D361" s="11"/>
-      <c r="E361" s="11"/>
+      <c r="C361" s="9"/>
+      <c r="D361" s="9"/>
+      <c r="E361" s="9"/>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
@@ -7145,27 +7081,27 @@
       </c>
     </row>
     <row r="364" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="C364" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D364" s="9" t="s">
+      <c r="D364" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E364" s="10" t="s">
+      <c r="E364" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="365" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="366" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B366" s="11" t="s">
+      <c r="B366" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
-      <c r="E366" s="11"/>
+      <c r="C366" s="9"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="9"/>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
@@ -7184,35 +7120,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="9" t="s">
+    <row r="369" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C369" s="9" t="s">
+      <c r="C369" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D369" s="9" t="s">
+      <c r="D369" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E369" s="10" t="s">
+      <c r="E369" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="370" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B371" s="11" t="s">
+    <row r="370" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B371" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
-      <c r="E371" s="11"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C371" s="9"/>
+      <c r="D371" s="9"/>
+      <c r="E371" s="9"/>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B373" s="4" t="s">
         <v>0</v>
       </c>
@@ -7224,10 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>2</v>
-      </c>
+    <row r="374" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
         <v>15</v>
       </c>
@@ -7241,10 +7174,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>2</v>
-      </c>
+    <row r="375" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B375" s="1" t="s">
         <v>16</v>
       </c>
@@ -7258,10 +7188,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>2</v>
-      </c>
+    <row r="376" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B376" s="1" t="s">
         <v>449</v>
       </c>
@@ -7275,10 +7202,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>2</v>
-      </c>
+    <row r="377" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B377" s="1" t="s">
         <v>450</v>
       </c>
@@ -7292,44 +7216,35 @@
         <v>453</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>1</v>
-      </c>
-      <c r="B378" s="9" t="s">
+    <row r="378" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C378" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D378" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E378" s="10" t="s">
+      <c r="D378" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E378" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>2</v>
-      </c>
-      <c r="B379" s="9" t="s">
+    <row r="379" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C379" s="9" t="s">
+      <c r="C379" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D379" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E379" s="10" t="s">
+      <c r="D379" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E379" s="8" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>2</v>
-      </c>
+    <row r="380" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1" t="s">
         <v>17</v>
       </c>
@@ -7343,7 +7258,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B381" s="1" t="s">
         <v>25</v>
       </c>
@@ -7357,7 +7272,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B382" s="1" t="s">
         <v>29</v>
       </c>
@@ -7371,10 +7286,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>2</v>
-      </c>
+    <row r="383" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B383" s="1" t="s">
         <v>94</v>
       </c>
@@ -7388,67 +7300,61 @@
         <v>459</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>1</v>
-      </c>
-      <c r="B384" s="9" t="s">
+    <row r="384" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D384" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E384" s="10" t="s">
+      <c r="D384" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E384" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>2</v>
-      </c>
-      <c r="B385" s="9" t="s">
+    <row r="385" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D385" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E385" s="10" t="s">
+      <c r="D385" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E385" s="8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="8" t="s">
+    <row r="386" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B387" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="388" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B388" s="5"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B389" s="11" t="s">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B389" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C389" s="11"/>
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="9"/>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B391" s="4" t="s">
         <v>0</v>
       </c>
@@ -7460,35 +7366,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="9" t="s">
+    <row r="392" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D392" s="9" t="s">
+      <c r="D392" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="10" t="s">
+      <c r="E392" s="8" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="393" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B394" s="11" t="s">
+    <row r="393" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B394" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C394" s="11"/>
-      <c r="D394" s="11"/>
-      <c r="E394" s="11"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C394" s="9"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="9"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B396" s="4" t="s">
         <v>0</v>
       </c>
@@ -7500,21 +7406,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="9" t="s">
+    <row r="397" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C397" s="9" t="s">
+      <c r="C397" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D397" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E397" s="10" t="s">
+      <c r="D397" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E397" s="8" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B398" s="1" t="s">
         <v>46</v>
       </c>
@@ -7528,21 +7434,21 @@
         <v>619</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B399" s="9" t="s">
+    <row r="399" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C399" s="9" t="s">
+      <c r="C399" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D399" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E399" s="10" t="s">
+      <c r="D399" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E399" s="8" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B400" s="1" t="s">
         <v>94</v>
       </c>
@@ -7586,12 +7492,12 @@
     </row>
     <row r="403" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="404" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B404" s="11" t="s">
+      <c r="B404" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C404" s="11"/>
-      <c r="D404" s="11"/>
-      <c r="E404" s="11"/>
+      <c r="C404" s="9"/>
+      <c r="D404" s="9"/>
+      <c r="E404" s="9"/>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
@@ -7611,27 +7517,27 @@
       </c>
     </row>
     <row r="407" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C407" s="9" t="s">
+      <c r="C407" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D407" s="9" t="s">
+      <c r="D407" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="10" t="s">
+      <c r="E407" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="408" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="409" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B409" s="11" t="s">
+      <c r="B409" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C409" s="11"/>
-      <c r="D409" s="11"/>
-      <c r="E409" s="11"/>
+      <c r="C409" s="9"/>
+      <c r="D409" s="9"/>
+      <c r="E409" s="9"/>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
@@ -7735,16 +7641,16 @@
       </c>
     </row>
     <row r="418" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C418" s="9" t="s">
+      <c r="C418" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D418" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E418" s="10" t="s">
+      <c r="D418" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E418" s="8" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7777,16 +7683,16 @@
       </c>
     </row>
     <row r="421" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C421" s="9" t="s">
+      <c r="C421" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D421" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E421" s="10" t="s">
+      <c r="D421" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E421" s="8" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7806,12 +7712,12 @@
     </row>
     <row r="423" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="424" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B424" s="11" t="s">
+      <c r="B424" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C424" s="11"/>
-      <c r="D424" s="11"/>
-      <c r="E424" s="11"/>
+      <c r="C424" s="9"/>
+      <c r="D424" s="9"/>
+      <c r="E424" s="9"/>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
@@ -7831,27 +7737,27 @@
       </c>
     </row>
     <row r="427" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C427" s="9" t="s">
+      <c r="C427" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D427" s="9" t="s">
+      <c r="D427" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E427" s="10" t="s">
+      <c r="E427" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="428" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="429" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B429" s="11" t="s">
+      <c r="B429" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C429" s="11"/>
-      <c r="D429" s="11"/>
-      <c r="E429" s="11"/>
+      <c r="C429" s="9"/>
+      <c r="D429" s="9"/>
+      <c r="E429" s="9"/>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
@@ -7927,44 +7833,44 @@
       </c>
     </row>
     <row r="436" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="C436" s="9" t="s">
+      <c r="C436" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D436" s="9" t="s">
+      <c r="D436" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E436" s="10" t="s">
+      <c r="E436" s="8" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="437" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C437" s="9" t="s">
+      <c r="C437" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D437" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E437" s="10" t="s">
+      <c r="D437" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E437" s="8" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="438" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C438" s="9" t="s">
+      <c r="C438" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D438" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E438" s="10" t="s">
+      <c r="D438" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E438" s="8" t="s">
         <v>513</v>
       </c>
     </row>
@@ -8039,16 +7945,16 @@
       </c>
     </row>
     <row r="444" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="9" t="s">
+      <c r="C444" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D444" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E444" s="10" t="s">
+      <c r="D444" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E444" s="8" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8124,12 +8030,12 @@
     </row>
     <row r="450" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="451" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B451" s="11" t="s">
+      <c r="B451" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C451" s="11"/>
-      <c r="D451" s="11"/>
-      <c r="E451" s="11"/>
+      <c r="C451" s="9"/>
+      <c r="D451" s="9"/>
+      <c r="E451" s="9"/>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
@@ -8149,27 +8055,27 @@
       </c>
     </row>
     <row r="454" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C454" s="9" t="s">
+      <c r="C454" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D454" s="9" t="s">
+      <c r="D454" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E454" s="10" t="s">
+      <c r="E454" s="8" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="455" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="456" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="11" t="s">
+      <c r="B456" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C456" s="11"/>
-      <c r="D456" s="11"/>
-      <c r="E456" s="11"/>
+      <c r="C456" s="9"/>
+      <c r="D456" s="9"/>
+      <c r="E456" s="9"/>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
@@ -8218,12 +8124,12 @@
     </row>
     <row r="461" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="462" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B462" s="11" t="s">
+      <c r="B462" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C462" s="11"/>
-      <c r="D462" s="11"/>
-      <c r="E462" s="11"/>
+      <c r="C462" s="9"/>
+      <c r="D462" s="9"/>
+      <c r="E462" s="9"/>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
@@ -8243,27 +8149,27 @@
       </c>
     </row>
     <row r="465" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C465" s="9" t="s">
+      <c r="C465" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D465" s="9" t="s">
+      <c r="D465" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E465" s="10" t="s">
+      <c r="E465" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="466" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="467" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B467" s="11" t="s">
+      <c r="B467" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C467" s="11"/>
-      <c r="D467" s="11"/>
-      <c r="E467" s="11"/>
+      <c r="C467" s="9"/>
+      <c r="D467" s="9"/>
+      <c r="E467" s="9"/>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
@@ -8382,12 +8288,12 @@
     </row>
     <row r="477" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="478" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B478" s="11" t="s">
+      <c r="B478" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C478" s="11"/>
-      <c r="D478" s="11"/>
-      <c r="E478" s="11"/>
+      <c r="C478" s="9"/>
+      <c r="D478" s="9"/>
+      <c r="E478" s="9"/>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
@@ -8407,16 +8313,16 @@
       </c>
     </row>
     <row r="481" spans="2:5" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C481" s="9" t="s">
+      <c r="C481" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D481" s="9" t="s">
+      <c r="D481" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E481" s="10" t="s">
+      <c r="E481" s="8" t="s">
         <v>547</v>
       </c>
     </row>
@@ -8436,12 +8342,12 @@
     </row>
     <row r="483" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="484" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B484" s="11" t="s">
+      <c r="B484" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C484" s="11"/>
-      <c r="D484" s="11"/>
-      <c r="E484" s="11"/>
+      <c r="C484" s="9"/>
+      <c r="D484" s="9"/>
+      <c r="E484" s="9"/>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
@@ -8461,27 +8367,27 @@
       </c>
     </row>
     <row r="487" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C487" s="9" t="s">
+      <c r="C487" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D487" s="9" t="s">
+      <c r="D487" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E487" s="10" t="s">
+      <c r="E487" s="8" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="488" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="489" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B489" s="11" t="s">
+      <c r="B489" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C489" s="11"/>
-      <c r="D489" s="11"/>
-      <c r="E489" s="11"/>
+      <c r="C489" s="9"/>
+      <c r="D489" s="9"/>
+      <c r="E489" s="9"/>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
@@ -8501,16 +8407,16 @@
       </c>
     </row>
     <row r="492" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C492" s="9" t="s">
+      <c r="C492" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D492" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E492" s="10" t="s">
+      <c r="D492" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E492" s="8" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8585,16 +8491,16 @@
       </c>
     </row>
     <row r="498" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C498" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D498" s="9" t="s">
+      <c r="D498" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E498" s="10" t="s">
+      <c r="E498" s="8" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8614,12 +8520,12 @@
     </row>
     <row r="500" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="501" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B501" s="11" t="s">
+      <c r="B501" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C501" s="11"/>
-      <c r="D501" s="11"/>
-      <c r="E501" s="11"/>
+      <c r="C501" s="9"/>
+      <c r="D501" s="9"/>
+      <c r="E501" s="9"/>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
@@ -8639,27 +8545,27 @@
       </c>
     </row>
     <row r="504" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="C504" s="9" t="s">
+      <c r="C504" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D504" s="9" t="s">
+      <c r="D504" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E504" s="10" t="s">
+      <c r="E504" s="8" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="505" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="506" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B506" s="11" t="s">
+      <c r="B506" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C506" s="11"/>
-      <c r="D506" s="11"/>
-      <c r="E506" s="11"/>
+      <c r="C506" s="9"/>
+      <c r="D506" s="9"/>
+      <c r="E506" s="9"/>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B507" t="s">
@@ -8693,16 +8599,16 @@
       </c>
     </row>
     <row r="510" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C510" s="9" t="s">
+      <c r="C510" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D510" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E510" s="10" t="s">
+      <c r="D510" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E510" s="8" t="s">
         <v>573</v>
       </c>
     </row>
@@ -8722,12 +8628,12 @@
     </row>
     <row r="512" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="513" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B513" s="11" t="s">
+      <c r="B513" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C513" s="11"/>
-      <c r="D513" s="11"/>
-      <c r="E513" s="11"/>
+      <c r="C513" s="9"/>
+      <c r="D513" s="9"/>
+      <c r="E513" s="9"/>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
@@ -8747,16 +8653,16 @@
       </c>
     </row>
     <row r="516" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C516" s="9" t="s">
+      <c r="C516" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D516" s="9" t="s">
+      <c r="D516" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E516" s="10" t="s">
+      <c r="E516" s="8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8774,9 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E64E3-EE2D-4CD7-849C-D044A5064AA3}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8917,9 +8821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89237A-08F8-4186-89B5-8137F78E57AF}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8951,7 +8853,7 @@
       <c r="C5" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8962,7 +8864,7 @@
       <c r="C6" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>613</v>
       </c>
     </row>
@@ -8973,7 +8875,7 @@
       <c r="C7" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>614</v>
       </c>
     </row>
@@ -8993,7 +8895,7 @@
       <c r="C9" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>615</v>
       </c>
     </row>

--- a/Formats/Lenex/Lenex_3.0_Data_Model.xlsx
+++ b/Formats/Lenex/Lenex_3.0_Data_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Swimming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD90FB5A-791F-44B7-9951-15C17D6CF4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73402FCA-BA39-4FFB-85E0-0E38DFB4B87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36998781-9D05-4A47-A5F5-1AB6611C3C9C}"/>
   </bookViews>
@@ -6417,7 +6417,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B301" s="4" t="s">
         <v>0</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
         <v>29</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="303" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
         <v>376</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="304" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
         <v>121</v>
       </c>
@@ -6469,6 +6469,7 @@
       </c>
       <c r="E304" s="2"/>
     </row>
+    <row r="305" spans="2:5" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="306" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B306" s="9" t="s">
         <v>381</v>
